--- a/Finance Modelling_LBO Modelling.xlsx
+++ b/Finance Modelling_LBO Modelling.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harsshh Wankhayday\Desktop\Resume\FINAL YEAR RESUME\Reference docs\Finance_Projects\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8494634-FAC0-47B9-B0C3-B402DD730B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
     <sheet name="Projection" sheetId="2" r:id="rId2"/>
-    <sheet name="WACC Calculation" sheetId="3" r:id="rId3"/>
-    <sheet name="NPV Calculation" sheetId="4" r:id="rId4"/>
+    <sheet name="NPV Calculation" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>Revenue from Operations</t>
   </si>
@@ -183,9 +188,6 @@
   </si>
   <si>
     <t>Exit Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WACC= </t>
   </si>
   <si>
     <t>%</t>
@@ -218,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
   </numFmts>
@@ -318,9 +320,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -358,7 +360,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -430,7 +432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -603,11 +605,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="A1:F35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1090,11 +1092,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N39" sqref="A1:N39"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1935,37 +1937,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2">
-        <v>11.7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1975,24 +1951,23 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6">
-        <f>'WACC Calculation'!B2</f>
         <v>11.7</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="7">
         <f>NPV(C4,Projection!I17:N17)</f>
@@ -2001,7 +1976,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="6">
         <f>Projection!I17/(1+0.117)+Projection!J17/(1.117)^2+(Projection!K17/1.117^3)+(Projection!L17/1.117^4)+(Projection!M17/1.117^5)+(Projection!N17/1.117^6)</f>
@@ -2010,7 +1985,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>2761</v>
@@ -2018,7 +1993,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <f>17855+1702</f>
@@ -2027,7 +2002,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -2036,7 +2011,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
@@ -2046,7 +2021,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
